--- a/data files/Purchase Order/datt.xlsx
+++ b/data files/Purchase Order/datt.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28526"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36A605A5-B3D2-4D39-9D90-E3C348EBA83C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83C4F16F-D62B-4ABD-A337-913F66CE0B5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="master" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="43">
   <si>
     <t>s.No.</t>
   </si>
@@ -123,25 +123,28 @@
     <t>Velfix-T+pad, 8cmx15cm</t>
   </si>
   <si>
+    <t>Velfix-T, Medium</t>
+  </si>
+  <si>
+    <t>BALAJI SURGIKALS                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                        NEAR Mahila Degree College, NAWABI ROAD, HALDWANI-263 139</t>
+  </si>
+  <si>
+    <t>Velpore-T, 7.5cmx9m</t>
+  </si>
+  <si>
+    <t>Velfix Easy IV cannula Fixator,6X7CM</t>
+  </si>
+  <si>
+    <t>qty</t>
+  </si>
+  <si>
+    <t>SOFTSWAB 5'S,10x10x8PLY,</t>
+  </si>
+  <si>
     <t>Velfix-T+pad, 10cmx20cm</t>
   </si>
   <si>
-    <t>Velfix-T, Medium</t>
-  </si>
-  <si>
-    <t>BALAJI SURGIKALS                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                        NEAR Mahila Degree College, NAWABI ROAD, HALDWANI-263 139</t>
-  </si>
-  <si>
-    <t>Velpore-T, 7.5cmx9m</t>
-  </si>
-  <si>
-    <t>Velfix Easy IV cannula Fixator,6X7CM</t>
-  </si>
-  <si>
-    <t>18/09/24</t>
-  </si>
-  <si>
-    <t>qty</t>
+    <t>CASE</t>
   </si>
 </sst>
 </file>
@@ -605,38 +608,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G40"/>
+  <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:D4"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="1"/>
-    <col min="2" max="2" width="42.33203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="6.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.33203125" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="42.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="6.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.28515625" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="53.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B1" s="9"/>
       <c r="C1" s="9"/>
       <c r="D1" s="6"/>
     </row>
-    <row r="2" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="10" t="s">
-        <v>40</v>
-      </c>
+    <row r="2" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="10"/>
       <c r="B2" s="11"/>
       <c r="C2" s="11"/>
       <c r="D2" s="6"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>0</v>
       </c>
@@ -647,16 +648,16 @@
         <v>2</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="8"/>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
       <c r="B5" s="3" t="s">
         <v>23</v>
@@ -664,9 +665,11 @@
       <c r="C5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="4"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="D5" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
       <c r="B6" s="3" t="s">
         <v>24</v>
@@ -676,7 +679,7 @@
       </c>
       <c r="D6" s="4"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
       <c r="B7" s="3" t="s">
         <v>27</v>
@@ -684,9 +687,11 @@
       <c r="C7" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="4"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="D7" s="4">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
       <c r="B8" s="3" t="s">
         <v>26</v>
@@ -696,304 +701,340 @@
       </c>
       <c r="D8" s="4"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
       <c r="B9" s="3" t="s">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="4"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
       <c r="B10" s="3" t="s">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="4"/>
-      <c r="G10" s="5"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="D10" s="4">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
       <c r="B11" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D11" s="4"/>
+        <v>42</v>
+      </c>
+      <c r="D11" s="4">
+        <v>1</v>
+      </c>
       <c r="G11" s="5"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
       <c r="B12" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D12" s="4"/>
+        <v>42</v>
+      </c>
+      <c r="D12" s="4">
+        <v>1</v>
+      </c>
       <c r="G12" s="5"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
       <c r="B13" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>4</v>
+        <v>42</v>
       </c>
       <c r="D13" s="4"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G13" s="5"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
       <c r="B14" s="3" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C14" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" s="4"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="2"/>
+      <c r="B15" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D14" s="4"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A15" s="2"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
       <c r="D15" s="4"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="2"/>
-      <c r="B16" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>4</v>
-      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
       <c r="D16" s="4"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="2"/>
       <c r="B17" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D17" s="4"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="2"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
+      <c r="B18" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="D18" s="4"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="2"/>
-      <c r="B19" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>14</v>
-      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
       <c r="D19" s="4"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="2"/>
       <c r="B20" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D20" s="4"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D20" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="2"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="4"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B21" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="2"/>
-      <c r="B22" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>14</v>
-      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
       <c r="D22" s="4"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="2"/>
       <c r="B23" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D23" s="4"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="2"/>
       <c r="B24" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D24" s="4"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="2"/>
       <c r="B25" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D25" s="4"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="2"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
+      <c r="B26" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="D26" s="4"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="2"/>
-      <c r="B27" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>14</v>
-      </c>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
       <c r="D27" s="4"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="2"/>
       <c r="B28" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D28" s="4"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D28" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="2"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="4"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B29" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D29" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="2"/>
-      <c r="B30" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>4</v>
-      </c>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
       <c r="D30" s="4"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="2"/>
       <c r="B31" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D31" s="4"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D31" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="2"/>
       <c r="B32" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D32" s="4"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D32" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="2"/>
       <c r="B33" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D33" s="4"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D33" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="2"/>
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
+      <c r="B34" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="D34" s="4"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="2"/>
-      <c r="B35" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>4</v>
-      </c>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
       <c r="D35" s="4"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="2"/>
       <c r="B36" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D36" s="4"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="2"/>
       <c r="B37" s="3" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D37" s="4"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+        <v>4</v>
+      </c>
+      <c r="D37" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="2"/>
       <c r="B38" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D38" s="4"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D38" s="4">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="2"/>
       <c r="B39" s="3" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D39" s="4"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D39" s="4">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="2"/>
       <c r="B40" s="3" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>32</v>
       </c>
       <c r="D40" s="4"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" s="2"/>
+      <c r="B41" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D41" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -1015,7 +1056,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
